--- a/TemplateSample.xlsx
+++ b/TemplateSample.xlsx
@@ -16,7 +16,7 @@
     <sheet name="Miền Nam - Thị Xã" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">LIST!$C$1:$F$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">LIST!$C$1:$F$2</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>TÊN ĐƠN VỊ</t>
   </si>
@@ -45,18 +45,6 @@
     <t xml:space="preserve">Công an quận Ba Đình </t>
   </si>
   <si>
-    <t xml:space="preserve">Công an quận Hoàn Kiếm </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Công an quận Tây Hồ </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Công an quận Long Biên </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Công an quận Cầu Giấy </t>
-  </si>
-  <si>
     <t>STT</t>
   </si>
   <si>
@@ -69,37 +57,7 @@
     <t>Công an quận Ba Đình  thành phố Hà Nội</t>
   </si>
   <si>
-    <t>Công an quận Hoàn Kiếm  thành phố Hà Nội</t>
-  </si>
-  <si>
-    <t>Công an quận Tây Hồ  thành phố Hà Nội</t>
-  </si>
-  <si>
-    <t>Công an quận Long Biên  thành phố Hà Nội</t>
-  </si>
-  <si>
-    <t>Công an quận Cầu Giấy  thành phố Hà Nội</t>
-  </si>
-  <si>
-    <t>UBND Ủy ban nhân dân</t>
-  </si>
-  <si>
     <t>Công an</t>
-  </si>
-  <si>
-    <t>UBND Ủy ban nhân dân quận Ba Đình  thành phố Hà Nội</t>
-  </si>
-  <si>
-    <t>UBND Ủy ban nhân dân quận Hoàn Kiếm  thành phố Hà Nội</t>
-  </si>
-  <si>
-    <t>UBND Ủy ban nhân dân quận Tây Hồ  thành phố Hà Nội</t>
-  </si>
-  <si>
-    <t>UBND Ủy ban nhân dân quận Long Biên  thành phố Hà Nội</t>
-  </si>
-  <si>
-    <t>UBND Ủy ban nhân dân quận Cầu Giấy  thành phố Hà Nội</t>
   </si>
   <si>
     <t>ĐỊA CHỈ</t>
@@ -200,7 +158,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -224,9 +182,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -444,11 +399,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomLeft" activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -465,18 +420,18 @@
   <sheetData>
     <row r="1" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E1" s="7"/>
       <c r="F1" s="7" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>2</v>
@@ -488,7 +443,7 @@
         <v>3</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.2">
@@ -496,16 +451,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="4"/>
@@ -513,186 +468,8 @@
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
     </row>
-    <row r="3" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="8">
-        <v>2</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="9"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-    </row>
-    <row r="4" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="8">
-        <v>3</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-    </row>
-    <row r="5" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="8">
-        <v>4</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="9"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-    </row>
-    <row r="6" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="8">
-        <v>5</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-    </row>
-    <row r="7" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="8">
-        <v>6</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="9"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-    </row>
-    <row r="8" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="8">
-        <v>7</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-    </row>
-    <row r="9" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="8">
-        <v>8</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="9"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-    </row>
-    <row r="10" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="8">
-        <v>9</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-    </row>
-    <row r="11" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="8">
-        <v>10</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F11" s="9"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-    </row>
   </sheetData>
-  <autoFilter ref="C1:F11"/>
+  <autoFilter ref="C1:F2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/TemplateSample.xlsx
+++ b/TemplateSample.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="29">
   <si>
     <t>TÊN ĐƠN VỊ</t>
   </si>
@@ -64,6 +64,57 @@
   </si>
   <si>
     <t>Link</t>
+  </si>
+  <si>
+    <t>UBND Ủy ban nhân dân</t>
+  </si>
+  <si>
+    <t>UBND Ủy ban nhân dân quận Ba Đình  thành phố Hà Nội</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Công an quận Hoàn Kiếm </t>
+  </si>
+  <si>
+    <t>Công an quận Hoàn Kiếm  thành phố Hà Nội</t>
+  </si>
+  <si>
+    <t>UBND Ủy ban nhân dân quận Hoàn Kiếm  thành phố Hà Nội</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Công an quận Tây Hồ </t>
+  </si>
+  <si>
+    <t>Công an quận Tây Hồ  thành phố Hà Nội</t>
+  </si>
+  <si>
+    <t>UBND Ủy ban nhân dân quận Tây Hồ  thành phố Hà Nội</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Công an quận Long Biên </t>
+  </si>
+  <si>
+    <t>Công an quận Long Biên  thành phố Hà Nội</t>
+  </si>
+  <si>
+    <t>UBND Ủy ban nhân dân quận Long Biên  thành phố Hà Nội</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Công an quận Cầu Giấy </t>
+  </si>
+  <si>
+    <t>Công an quận Cầu Giấy  thành phố Hà Nội</t>
+  </si>
+  <si>
+    <t>UBND Ủy ban nhân dân quận Cầu Giấy  thành phố Hà Nội</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Công an quận Đống Đa </t>
+  </si>
+  <si>
+    <t>Công an quận Đống Đa  thành phố Hà Nội</t>
+  </si>
+  <si>
+    <t>UBND Ủy ban nhân dân quận Đống Đa  thành phố Hà Nội</t>
   </si>
 </sst>
 </file>
@@ -131,7 +182,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -154,11 +205,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -166,22 +245,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -399,11 +484,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E22" sqref="E22"/>
+      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -419,54 +504,212 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="7" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7" t="s">
+      <c r="E1" s="6"/>
+      <c r="F1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="8">
+      <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
+    </row>
+    <row r="3" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="7">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="7">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="7">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="7">
+        <v>5</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="7">
+        <v>7</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="7">
+        <v>8</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="7">
+        <v>9</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="7">
+        <v>10</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="7">
+        <v>11</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="7">
+        <v>12</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="10" t="s">
+        <v>28</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="C1:F2"/>

--- a/TemplateSample.xlsx
+++ b/TemplateSample.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>TÊN ĐƠN VỊ</t>
   </si>
@@ -64,57 +64,6 @@
   </si>
   <si>
     <t>Link</t>
-  </si>
-  <si>
-    <t>UBND Ủy ban nhân dân</t>
-  </si>
-  <si>
-    <t>UBND Ủy ban nhân dân quận Ba Đình  thành phố Hà Nội</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Công an quận Hoàn Kiếm </t>
-  </si>
-  <si>
-    <t>Công an quận Hoàn Kiếm  thành phố Hà Nội</t>
-  </si>
-  <si>
-    <t>UBND Ủy ban nhân dân quận Hoàn Kiếm  thành phố Hà Nội</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Công an quận Tây Hồ </t>
-  </si>
-  <si>
-    <t>Công an quận Tây Hồ  thành phố Hà Nội</t>
-  </si>
-  <si>
-    <t>UBND Ủy ban nhân dân quận Tây Hồ  thành phố Hà Nội</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Công an quận Long Biên </t>
-  </si>
-  <si>
-    <t>Công an quận Long Biên  thành phố Hà Nội</t>
-  </si>
-  <si>
-    <t>UBND Ủy ban nhân dân quận Long Biên  thành phố Hà Nội</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Công an quận Cầu Giấy </t>
-  </si>
-  <si>
-    <t>Công an quận Cầu Giấy  thành phố Hà Nội</t>
-  </si>
-  <si>
-    <t>UBND Ủy ban nhân dân quận Cầu Giấy  thành phố Hà Nội</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Công an quận Đống Đa </t>
-  </si>
-  <si>
-    <t>Công an quận Đống Đa  thành phố Hà Nội</t>
-  </si>
-  <si>
-    <t>UBND Ủy ban nhân dân quận Đống Đa  thành phố Hà Nội</t>
   </si>
 </sst>
 </file>
@@ -237,7 +186,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -261,12 +210,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -484,11 +427,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
+      <selection pane="bottomLeft" activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -546,169 +489,6 @@
       </c>
       <c r="E2" s="8" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="7">
-        <v>2</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="7">
-        <v>3</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="7">
-        <v>4</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="7">
-        <v>5</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="7">
-        <v>6</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="7">
-        <v>7</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="7">
-        <v>8</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="7">
-        <v>9</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="7">
-        <v>10</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="7">
-        <v>11</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="7">
-        <v>12</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="10" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/TemplateSample.xlsx
+++ b/TemplateSample.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="163">
   <si>
     <t>TÊN ĐƠN VỊ</t>
   </si>
@@ -42,35 +42,488 @@
     <t>EMAIL</t>
   </si>
   <si>
+    <t>STT</t>
+  </si>
+  <si>
+    <t>TÊN TỈNH</t>
+  </si>
+  <si>
+    <t>ĐỊA CHỈ</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>UBND Ủy ban nhân dân</t>
+  </si>
+  <si>
+    <t>UBND Ủy ban nhân dân quận Ba Đình  thành phố Hà Nội</t>
+  </si>
+  <si>
+    <t>Công an</t>
+  </si>
+  <si>
     <t xml:space="preserve">Công an quận Ba Đình </t>
   </si>
   <si>
-    <t>STT</t>
-  </si>
-  <si>
     <t>thành phố Hà Nội</t>
   </si>
   <si>
-    <t>TÊN TỈNH</t>
-  </si>
-  <si>
     <t>Công an quận Ba Đình  thành phố Hà Nội</t>
   </si>
   <si>
-    <t>Công an</t>
-  </si>
-  <si>
-    <t>ĐỊA CHỈ</t>
-  </si>
-  <si>
-    <t>Link</t>
+    <t xml:space="preserve">Công an quận Hoàn Kiếm </t>
+  </si>
+  <si>
+    <t>Công an quận Hoàn Kiếm  thành phố Hà Nội</t>
+  </si>
+  <si>
+    <t>UBND Ủy ban nhân dân quận Hoàn Kiếm  thành phố Hà Nội</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Công an quận Tây Hồ </t>
+  </si>
+  <si>
+    <t>Công an quận Tây Hồ  thành phố Hà Nội</t>
+  </si>
+  <si>
+    <t>UBND Ủy ban nhân dân quận Tây Hồ  thành phố Hà Nội</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Công an quận Long Biên </t>
+  </si>
+  <si>
+    <t>Công an quận Long Biên  thành phố Hà Nội</t>
+  </si>
+  <si>
+    <t>UBND Ủy ban nhân dân quận Long Biên  thành phố Hà Nội</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Công an quận Cầu Giấy </t>
+  </si>
+  <si>
+    <t>Công an quận Cầu Giấy  thành phố Hà Nội</t>
+  </si>
+  <si>
+    <t>UBND Ủy ban nhân dân quận Cầu Giấy  thành phố Hà Nội</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Công an quận Đống Đa </t>
+  </si>
+  <si>
+    <t>Công an quận Đống Đa  thành phố Hà Nội</t>
+  </si>
+  <si>
+    <t>UBND Ủy ban nhân dân quận Đống Đa  thành phố Hà Nội</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Công an quận Hai Bà Trưng </t>
+  </si>
+  <si>
+    <t>Công an quận Hai Bà Trưng  thành phố Hà Nội</t>
+  </si>
+  <si>
+    <t>UBND Ủy ban nhân dân quận Hai Bà Trưng  thành phố Hà Nội</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Công an quận Hoàng Mai </t>
+  </si>
+  <si>
+    <t>Công an quận Hoàng Mai  thành phố Hà Nội</t>
+  </si>
+  <si>
+    <t>UBND Ủy ban nhân dân quận Hoàng Mai  thành phố Hà Nội</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Công an quận Thanh Xuân </t>
+  </si>
+  <si>
+    <t>Công an quận Thanh Xuân  thành phố Hà Nội</t>
+  </si>
+  <si>
+    <t>UBND Ủy ban nhân dân quận Thanh Xuân  thành phố Hà Nội</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Công an huyện Sóc Sơn </t>
+  </si>
+  <si>
+    <t>Công an huyện Sóc Sơn  thành phố Hà Nội</t>
+  </si>
+  <si>
+    <t>UBND Ủy ban nhân dân huyện Sóc Sơn  thành phố Hà Nội</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Công an huyện Đông Anh </t>
+  </si>
+  <si>
+    <t>Công an huyện Đông Anh  thành phố Hà Nội</t>
+  </si>
+  <si>
+    <t>UBND Ủy ban nhân dân huyện Đông Anh  thành phố Hà Nội</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Công an huyện Gia Lâm </t>
+  </si>
+  <si>
+    <t>Công an huyện Gia Lâm  thành phố Hà Nội</t>
+  </si>
+  <si>
+    <t>UBND Ủy ban nhân dân huyện Gia Lâm  thành phố Hà Nội</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Công an quận Nam Từ Liêm </t>
+  </si>
+  <si>
+    <t>Công an quận Nam Từ Liêm  thành phố Hà Nội</t>
+  </si>
+  <si>
+    <t>UBND Ủy ban nhân dân quận Nam Từ Liêm  thành phố Hà Nội</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Công an huyện Thanh Trì </t>
+  </si>
+  <si>
+    <t>Công an huyện Thanh Trì  thành phố Hà Nội</t>
+  </si>
+  <si>
+    <t>UBND Ủy ban nhân dân huyện Thanh Trì  thành phố Hà Nội</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Công an quận Bắc Từ Liêm </t>
+  </si>
+  <si>
+    <t>Công an quận Bắc Từ Liêm  thành phố Hà Nội</t>
+  </si>
+  <si>
+    <t>UBND Ủy ban nhân dân quận Bắc Từ Liêm  thành phố Hà Nội</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Công an huyện Mê Linh </t>
+  </si>
+  <si>
+    <t>Công an huyện Mê Linh  thành phố Hà Nội</t>
+  </si>
+  <si>
+    <t>UBND Ủy ban nhân dân huyện Mê Linh  thành phố Hà Nội</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Công an quận Hà Đông </t>
+  </si>
+  <si>
+    <t>Công an quận Hà Đông  thành phố Hà Nội</t>
+  </si>
+  <si>
+    <t>UBND Ủy ban nhân dân quận Hà Đông  thành phố Hà Nội</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Công an huyện Ba Vì </t>
+  </si>
+  <si>
+    <t>Công an huyện Ba Vì  thành phố Hà Nội</t>
+  </si>
+  <si>
+    <t>UBND Ủy ban nhân dân huyện Ba Vì  thành phố Hà Nội</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Công an huyện Phúc Thọ </t>
+  </si>
+  <si>
+    <t>Công an huyện Phúc Thọ  thành phố Hà Nội</t>
+  </si>
+  <si>
+    <t>UBND Ủy ban nhân dân huyện Phúc Thọ  thành phố Hà Nội</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Công an huyện Đan Phượng </t>
+  </si>
+  <si>
+    <t>Công an huyện Đan Phượng  thành phố Hà Nội</t>
+  </si>
+  <si>
+    <t>UBND Ủy ban nhân dân huyện Đan Phượng  thành phố Hà Nội</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Công an huyện Hoài Đức </t>
+  </si>
+  <si>
+    <t>Công an huyện Hoài Đức  thành phố Hà Nội</t>
+  </si>
+  <si>
+    <t>UBND Ủy ban nhân dân huyện Hoài Đức  thành phố Hà Nội</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Công an huyện Quốc Oai </t>
+  </si>
+  <si>
+    <t>Công an huyện Quốc Oai  thành phố Hà Nội</t>
+  </si>
+  <si>
+    <t>UBND Ủy ban nhân dân huyện Quốc Oai  thành phố Hà Nội</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Công an huyện Thạch Thất </t>
+  </si>
+  <si>
+    <t>Công an huyện Thạch Thất  thành phố Hà Nội</t>
+  </si>
+  <si>
+    <t>UBND Ủy ban nhân dân huyện Thạch Thất  thành phố Hà Nội</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Công an huyện Chương Mỹ </t>
+  </si>
+  <si>
+    <t>Công an huyện Chương Mỹ  thành phố Hà Nội</t>
+  </si>
+  <si>
+    <t>UBND Ủy ban nhân dân huyện Chương Mỹ  thành phố Hà Nội</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Công an huyện Thanh Oai </t>
+  </si>
+  <si>
+    <t>Công an huyện Thanh Oai  thành phố Hà Nội</t>
+  </si>
+  <si>
+    <t>UBND Ủy ban nhân dân huyện Thanh Oai  thành phố Hà Nội</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Công an huyện Thường Tín </t>
+  </si>
+  <si>
+    <t>Công an huyện Thường Tín  thành phố Hà Nội</t>
+  </si>
+  <si>
+    <t>UBND Ủy ban nhân dân huyện Thường Tín  thành phố Hà Nội</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Công an huyện Phú Xuyên </t>
+  </si>
+  <si>
+    <t>Công an huyện Phú Xuyên  thành phố Hà Nội</t>
+  </si>
+  <si>
+    <t>UBND Ủy ban nhân dân huyện Phú Xuyên  thành phố Hà Nội</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Công an huyện Ứng Hòa </t>
+  </si>
+  <si>
+    <t>Công an huyện Ứng Hòa  thành phố Hà Nội</t>
+  </si>
+  <si>
+    <t>UBND Ủy ban nhân dân huyện Ứng Hòa  thành phố Hà Nội</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Công an huyện Mỹ Đức </t>
+  </si>
+  <si>
+    <t>Công an huyện Mỹ Đức  thành phố Hà Nội</t>
+  </si>
+  <si>
+    <t>UBND Ủy ban nhân dân huyện Mỹ Đức  thành phố Hà Nội</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Công an thành phố Hà Giang </t>
+  </si>
+  <si>
+    <t>tỉnh Hà Giang</t>
+  </si>
+  <si>
+    <t>Công an thành phố Hà Giang  tỉnh Hà Giang</t>
+  </si>
+  <si>
+    <t>UBND Ủy ban nhân dân thành phố Hà Giang  tỉnh Hà Giang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Công an huyện Đồng Văn </t>
+  </si>
+  <si>
+    <t>Công an huyện Đồng Văn  tỉnh Hà Giang</t>
+  </si>
+  <si>
+    <t>UBND Ủy ban nhân dân huyện Đồng Văn  tỉnh Hà Giang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Công an huyện Mèo Vạc </t>
+  </si>
+  <si>
+    <t>Công an huyện Mèo Vạc  tỉnh Hà Giang</t>
+  </si>
+  <si>
+    <t>UBND Ủy ban nhân dân huyện Mèo Vạc  tỉnh Hà Giang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Công an huyện Yên Minh </t>
+  </si>
+  <si>
+    <t>Công an huyện Yên Minh  tỉnh Hà Giang</t>
+  </si>
+  <si>
+    <t>UBND Ủy ban nhân dân huyện Yên Minh  tỉnh Hà Giang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Công an huyện Quản Bạ </t>
+  </si>
+  <si>
+    <t>Công an huyện Quản Bạ  tỉnh Hà Giang</t>
+  </si>
+  <si>
+    <t>UBND Ủy ban nhân dân huyện Quản Bạ  tỉnh Hà Giang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Công an huyện Vị Xuyên </t>
+  </si>
+  <si>
+    <t>Công an huyện Vị Xuyên  tỉnh Hà Giang</t>
+  </si>
+  <si>
+    <t>UBND Ủy ban nhân dân huyện Vị Xuyên  tỉnh Hà Giang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Công an huyện Bắc Mê </t>
+  </si>
+  <si>
+    <t>Công an huyện Bắc Mê  tỉnh Hà Giang</t>
+  </si>
+  <si>
+    <t>UBND Ủy ban nhân dân huyện Bắc Mê  tỉnh Hà Giang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Công an huyện Hoàng Su Phì </t>
+  </si>
+  <si>
+    <t>Công an huyện Hoàng Su Phì  tỉnh Hà Giang</t>
+  </si>
+  <si>
+    <t>UBND Ủy ban nhân dân huyện Hoàng Su Phì  tỉnh Hà Giang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Công an huyện Xín Mần </t>
+  </si>
+  <si>
+    <t>Công an huyện Xín Mần  tỉnh Hà Giang</t>
+  </si>
+  <si>
+    <t>UBND Ủy ban nhân dân huyện Xín Mần  tỉnh Hà Giang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Công an huyện Bắc Quang </t>
+  </si>
+  <si>
+    <t>Công an huyện Bắc Quang  tỉnh Hà Giang</t>
+  </si>
+  <si>
+    <t>UBND Ủy ban nhân dân huyện Bắc Quang  tỉnh Hà Giang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Công an huyện Quang Bình </t>
+  </si>
+  <si>
+    <t>Công an huyện Quang Bình  tỉnh Hà Giang</t>
+  </si>
+  <si>
+    <t>UBND Ủy ban nhân dân huyện Quang Bình  tỉnh Hà Giang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Công an thành phố Cao Bằng </t>
+  </si>
+  <si>
+    <t>tỉnh Cao Bằng</t>
+  </si>
+  <si>
+    <t>Công an thành phố Cao Bằng  tỉnh Cao Bằng</t>
+  </si>
+  <si>
+    <t>UBND Ủy ban nhân dân thành phố Cao Bằng  tỉnh Cao Bằng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Công an huyện Bảo Lâm </t>
+  </si>
+  <si>
+    <t>Công an huyện Bảo Lâm  tỉnh Cao Bằng</t>
+  </si>
+  <si>
+    <t>UBND Ủy ban nhân dân huyện Bảo Lâm  tỉnh Cao Bằng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Công an huyện Bảo Lạc </t>
+  </si>
+  <si>
+    <t>Công an huyện Bảo Lạc  tỉnh Cao Bằng</t>
+  </si>
+  <si>
+    <t>UBND Ủy ban nhân dân huyện Bảo Lạc  tỉnh Cao Bằng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Công an huyện Thông Nông </t>
+  </si>
+  <si>
+    <t>Công an huyện Thông Nông  tỉnh Cao Bằng</t>
+  </si>
+  <si>
+    <t>UBND Ủy ban nhân dân huyện Thông Nông  tỉnh Cao Bằng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Công an huyện Hà Quảng </t>
+  </si>
+  <si>
+    <t>Công an huyện Hà Quảng  tỉnh Cao Bằng</t>
+  </si>
+  <si>
+    <t>UBND Ủy ban nhân dân huyện Hà Quảng  tỉnh Cao Bằng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Công an huyện Trà Lĩnh </t>
+  </si>
+  <si>
+    <t>Công an huyện Trà Lĩnh  tỉnh Cao Bằng</t>
+  </si>
+  <si>
+    <t>UBND Ủy ban nhân dân huyện Trà Lĩnh  tỉnh Cao Bằng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Công an huyện Trùng Khánh </t>
+  </si>
+  <si>
+    <t>Công an huyện Trùng Khánh  tỉnh Cao Bằng</t>
+  </si>
+  <si>
+    <t>UBND Ủy ban nhân dân huyện Trùng Khánh  tỉnh Cao Bằng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Công an huyện Hạ Lang </t>
+  </si>
+  <si>
+    <t>Công an huyện Hạ Lang  tỉnh Cao Bằng</t>
+  </si>
+  <si>
+    <t>UBND Ủy ban nhân dân huyện Hạ Lang  tỉnh Cao Bằng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Công an huyện Quảng Uyên </t>
+  </si>
+  <si>
+    <t>Công an huyện Quảng Uyên  tỉnh Cao Bằng</t>
+  </si>
+  <si>
+    <t>UBND Ủy ban nhân dân huyện Quảng Uyên  tỉnh Cao Bằng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Công an huyện Phục Hoà </t>
+  </si>
+  <si>
+    <t>Công an huyện Phục Hoà  tỉnh Cao Bằng</t>
+  </si>
+  <si>
+    <t>UBND Ủy ban nhân dân huyện Phục Hoà  tỉnh Cao Bằng</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -98,17 +551,24 @@
       <family val="1"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -183,10 +643,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -194,7 +655,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -209,11 +670,21 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -427,11 +898,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E31" sqref="E31"/>
+      <selection pane="bottomLeft" activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -448,18 +919,18 @@
   <sheetData>
     <row r="1" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E1" s="6"/>
       <c r="F1" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>2</v>
@@ -471,7 +942,7 @@
         <v>3</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.2">
@@ -479,22 +950,1508 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="7">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="8" t="s">
+    </row>
+    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="7">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="7">
         <v>4</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="B5" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="7">
+        <v>5</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="7">
         <v>6</v>
       </c>
-      <c r="E2" s="8" t="s">
-        <v>8</v>
+      <c r="B7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="7">
+        <v>7</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="7">
+        <v>8</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="7">
+        <v>9</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="7">
+        <v>10</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="7">
+        <v>11</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="7">
+        <v>12</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="7">
+        <v>13</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="7">
+        <v>14</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="7">
+        <v>15</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="7">
+        <v>16</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="7">
+        <v>17</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="7">
+        <v>18</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="7">
+        <v>19</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="7">
+        <v>20</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="7">
+        <v>21</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="7">
+        <v>22</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="7">
+        <v>23</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="7">
+        <v>24</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="7">
+        <v>25</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="7">
+        <v>26</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="7">
+        <v>27</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="7">
+        <v>28</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="7">
+        <v>29</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="7">
+        <v>30</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="7">
+        <v>31</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="7">
+        <v>32</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="7">
+        <v>33</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="7">
+        <v>34</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="7">
+        <v>35</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="7">
+        <v>36</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="7">
+        <v>37</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="7">
+        <v>38</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="7">
+        <v>39</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E40" s="10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="7">
+        <v>40</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="7">
+        <v>41</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="7">
+        <v>42</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="7">
+        <v>43</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E44" s="10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="7">
+        <v>44</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="7">
+        <v>45</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E46" s="10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="7">
+        <v>46</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="7">
+        <v>47</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="D48" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E48" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="7">
+        <v>48</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="7">
+        <v>49</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="D50" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E50" s="10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="7">
+        <v>50</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="7">
+        <v>51</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="D52" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E52" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="7">
+        <v>52</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C53" s="8"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="7">
+        <v>53</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D54" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E54" s="10" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="7">
+        <v>54</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C55" s="8"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="7">
+        <v>55</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="D56" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E56" s="11" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="7">
+        <v>56</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C57" s="8"/>
+      <c r="D57" s="8"/>
+      <c r="E57" s="9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="7">
+        <v>57</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C58" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="D58" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E58" s="10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="7">
+        <v>58</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C59" s="8"/>
+      <c r="D59" s="8"/>
+      <c r="E59" s="9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="7">
+        <v>59</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C60" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="D60" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="E60" s="10" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="7">
+        <v>60</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C61" s="8"/>
+      <c r="D61" s="8"/>
+      <c r="E61" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="7">
+        <v>61</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C62" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="D62" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="E62" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="7">
+        <v>62</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C63" s="8"/>
+      <c r="D63" s="8"/>
+      <c r="E63" s="9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="7">
+        <v>63</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C64" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="D64" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="E64" s="10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="7">
+        <v>64</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C65" s="8"/>
+      <c r="D65" s="8"/>
+      <c r="E65" s="9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="7">
+        <v>65</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C66" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="D66" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="E66" s="10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="7">
+        <v>66</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C67" s="8"/>
+      <c r="D67" s="8"/>
+      <c r="E67" s="9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="7">
+        <v>67</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C68" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="D68" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="E68" s="10" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="7">
+        <v>68</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C69" s="8"/>
+      <c r="D69" s="8"/>
+      <c r="E69" s="9" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="7">
+        <v>69</v>
+      </c>
+      <c r="B70" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C70" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="D70" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="E70" s="10" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="7">
+        <v>70</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C71" s="8"/>
+      <c r="D71" s="8"/>
+      <c r="E71" s="9" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="7">
+        <v>71</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C72" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="D72" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="E72" s="10" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="7">
+        <v>72</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C73" s="8"/>
+      <c r="D73" s="8"/>
+      <c r="E73" s="9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="7">
+        <v>73</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C74" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="D74" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="E74" s="10" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="7">
+        <v>74</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C75" s="8"/>
+      <c r="D75" s="8"/>
+      <c r="E75" s="9" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="7">
+        <v>75</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C76" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="D76" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="E76" s="10" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="7">
+        <v>76</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C77" s="8"/>
+      <c r="D77" s="8"/>
+      <c r="E77" s="9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="7">
+        <v>77</v>
+      </c>
+      <c r="B78" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C78" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="D78" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="E78" s="10" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="7">
+        <v>78</v>
+      </c>
+      <c r="B79" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C79" s="8"/>
+      <c r="D79" s="8"/>
+      <c r="E79" s="9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="7">
+        <v>79</v>
+      </c>
+      <c r="B80" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C80" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="D80" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="E80" s="10" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="7">
+        <v>80</v>
+      </c>
+      <c r="B81" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C81" s="8"/>
+      <c r="D81" s="8"/>
+      <c r="E81" s="9" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="7">
+        <v>81</v>
+      </c>
+      <c r="B82" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C82" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="D82" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="E82" s="10" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="7">
+        <v>82</v>
+      </c>
+      <c r="B83" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C83" s="8"/>
+      <c r="D83" s="8"/>
+      <c r="E83" s="9" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="7">
+        <v>83</v>
+      </c>
+      <c r="B84" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C84" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="D84" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="E84" s="10" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="7">
+        <v>84</v>
+      </c>
+      <c r="B85" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C85" s="8"/>
+      <c r="D85" s="8"/>
+      <c r="E85" s="9" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="7">
+        <v>85</v>
+      </c>
+      <c r="B86" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C86" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="D86" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="E86" s="10" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="7">
+        <v>86</v>
+      </c>
+      <c r="B87" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C87" s="8"/>
+      <c r="D87" s="8"/>
+      <c r="E87" s="9" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="7">
+        <v>87</v>
+      </c>
+      <c r="B88" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C88" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="D88" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="E88" s="10" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="7">
+        <v>88</v>
+      </c>
+      <c r="B89" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C89" s="8"/>
+      <c r="D89" s="8"/>
+      <c r="E89" s="9" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="7">
+        <v>89</v>
+      </c>
+      <c r="B90" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C90" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="D90" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="E90" s="10" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="7">
+        <v>90</v>
+      </c>
+      <c r="B91" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C91" s="8"/>
+      <c r="D91" s="8"/>
+      <c r="E91" s="9" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="7">
+        <v>91</v>
+      </c>
+      <c r="B92" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C92" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="D92" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="E92" s="10" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="7">
+        <v>92</v>
+      </c>
+      <c r="B93" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C93" s="8"/>
+      <c r="D93" s="8"/>
+      <c r="E93" s="9" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="7">
+        <v>93</v>
+      </c>
+      <c r="B94" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C94" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="D94" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="E94" s="10" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="7">
+        <v>94</v>
+      </c>
+      <c r="B95" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C95" s="8"/>
+      <c r="D95" s="8"/>
+      <c r="E95" s="9" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="7">
+        <v>95</v>
+      </c>
+      <c r="B96" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C96" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="D96" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="E96" s="10" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="7">
+        <v>96</v>
+      </c>
+      <c r="B97" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C97" s="8"/>
+      <c r="D97" s="8"/>
+      <c r="E97" s="9" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="7">
+        <v>97</v>
+      </c>
+      <c r="B98" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C98" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="D98" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="E98" s="10" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="7">
+        <v>98</v>
+      </c>
+      <c r="B99" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C99" s="8"/>
+      <c r="D99" s="8"/>
+      <c r="E99" s="9" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="7">
+        <v>99</v>
+      </c>
+      <c r="B100" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C100" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="D100" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="E100" s="10" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="7">
+        <v>100</v>
+      </c>
+      <c r="B101" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C101" s="8"/>
+      <c r="D101" s="8"/>
+      <c r="E101" s="9" t="s">
+        <v>162</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="C1:F2"/>
+  <hyperlinks>
+    <hyperlink ref="E56" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/TemplateSample.xlsx
+++ b/TemplateSample.xlsx
@@ -28,10 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="26">
-  <si>
-    <t>TÊN ĐƠN VỊ</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>DI ĐỘNG</t>
   </si>
@@ -45,34 +42,10 @@
     <t>STT</t>
   </si>
   <si>
-    <t>TÊN TỈNH</t>
-  </si>
-  <si>
-    <t>ĐỊA CHỈ</t>
-  </si>
-  <si>
-    <t>Link</t>
-  </si>
-  <si>
-    <t>UBND Ủy ban nhân dân</t>
-  </si>
-  <si>
     <t>UBND Ủy ban nhân dân quận Ba Đình  thành phố Hà Nội</t>
   </si>
   <si>
-    <t>Công an</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Công an quận Ba Đình </t>
-  </si>
-  <si>
-    <t>thành phố Hà Nội</t>
-  </si>
-  <si>
     <t>Công an quận Ba Đình  thành phố Hà Nội</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Công an quận Hoàn Kiếm </t>
   </si>
   <si>
     <t>Công an quận Hoàn Kiếm  thành phố Hà Nội</t>
@@ -81,16 +54,10 @@
     <t>UBND Ủy ban nhân dân quận Hoàn Kiếm  thành phố Hà Nội</t>
   </si>
   <si>
-    <t xml:space="preserve">Công an quận Tây Hồ </t>
-  </si>
-  <si>
     <t>Công an quận Tây Hồ  thành phố Hà Nội</t>
   </si>
   <si>
     <t>UBND Ủy ban nhân dân quận Tây Hồ  thành phố Hà Nội</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Công an quận Long Biên </t>
   </si>
   <si>
     <t>Công an quận Long Biên  thành phố Hà Nội</t>
@@ -99,20 +66,26 @@
     <t>UBND Ủy ban nhân dân quận Long Biên  thành phố Hà Nội</t>
   </si>
   <si>
-    <t xml:space="preserve">Công an quận Cầu Giấy </t>
-  </si>
-  <si>
     <t>Công an quận Cầu Giấy  thành phố Hà Nội</t>
   </si>
   <si>
     <t>UBND Ủy ban nhân dân quận Cầu Giấy  thành phố Hà Nội</t>
+  </si>
+  <si>
+    <t>Đơn Vị</t>
+  </si>
+  <si>
+    <t>LINK</t>
+  </si>
+  <si>
+    <t>Địa chỉ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -152,6 +125,14 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -173,7 +154,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -196,39 +177,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -239,29 +193,33 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -479,203 +437,185 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B29" sqref="B29"/>
+      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="38.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="34.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="38.28515625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="51.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="58.5703125" style="2" customWidth="1"/>
-    <col min="7" max="10" width="33" style="2" customWidth="1"/>
+    <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="54" style="2" customWidth="1"/>
+    <col min="4" max="4" width="36" style="2" customWidth="1"/>
+    <col min="5" max="5" width="40.85546875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="33.7109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="47.5703125" style="2" customWidth="1"/>
+    <col min="8" max="10" width="33" style="2" customWidth="1"/>
     <col min="11" max="16384" width="12.5703125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="6"/>
-      <c r="F1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="3" t="s">
+      <c r="E1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>6</v>
-      </c>
+      <c r="G1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
     </row>
     <row r="2" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="7">
+      <c r="A2" s="8">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>13</v>
-      </c>
+      <c r="B2" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="11"/>
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="7">
+      <c r="A3" s="8">
         <v>2</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>8</v>
+      <c r="B3" s="9" t="s">
+        <v>4</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
-      <c r="E3" s="9" t="s">
-        <v>9</v>
-      </c>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="11"/>
     </row>
     <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="7">
+      <c r="A4" s="8">
         <v>3</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>15</v>
-      </c>
+      <c r="B4" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="11"/>
     </row>
     <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="7">
+      <c r="A5" s="8">
         <v>4</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>8</v>
+      <c r="B5" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
-      <c r="E5" s="9" t="s">
-        <v>16</v>
-      </c>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="11"/>
     </row>
     <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="7">
+      <c r="A6" s="8">
         <v>5</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>18</v>
-      </c>
+      <c r="B6" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="11"/>
     </row>
     <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="7">
+      <c r="A7" s="8">
         <v>6</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>8</v>
+      <c r="B7" s="8" t="s">
+        <v>9</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
-      <c r="E7" s="9" t="s">
-        <v>19</v>
-      </c>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="11"/>
     </row>
     <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="7">
+      <c r="A8" s="8">
         <v>7</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>21</v>
-      </c>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="11"/>
     </row>
     <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="7">
+      <c r="A9" s="8">
         <v>8</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>8</v>
+      <c r="B9" s="8" t="s">
+        <v>11</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
-      <c r="E9" s="9" t="s">
-        <v>22</v>
-      </c>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="11"/>
     </row>
     <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="7">
+      <c r="A10" s="8">
         <v>9</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="10" t="s">
+      <c r="B10" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="10" t="s">
-        <v>24</v>
-      </c>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="11"/>
     </row>
     <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="7">
+      <c r="A11" s="8">
         <v>10</v>
       </c>
-      <c r="B11" s="7" t="s">
-        <v>8</v>
+      <c r="B11" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
-      <c r="E11" s="9" t="s">
-        <v>25</v>
-      </c>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="11"/>
     </row>
   </sheetData>
-  <autoFilter ref="C1:F2"/>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 

--- a/TemplateSample.xlsx
+++ b/TemplateSample.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>DI ĐỘNG</t>
   </si>
@@ -42,34 +42,7 @@
     <t>STT</t>
   </si>
   <si>
-    <t>UBND Ủy ban nhân dân quận Ba Đình  thành phố Hà Nội</t>
-  </si>
-  <si>
     <t>Công an quận Ba Đình  thành phố Hà Nội</t>
-  </si>
-  <si>
-    <t>Công an quận Hoàn Kiếm  thành phố Hà Nội</t>
-  </si>
-  <si>
-    <t>UBND Ủy ban nhân dân quận Hoàn Kiếm  thành phố Hà Nội</t>
-  </si>
-  <si>
-    <t>Công an quận Tây Hồ  thành phố Hà Nội</t>
-  </si>
-  <si>
-    <t>UBND Ủy ban nhân dân quận Tây Hồ  thành phố Hà Nội</t>
-  </si>
-  <si>
-    <t>Công an quận Long Biên  thành phố Hà Nội</t>
-  </si>
-  <si>
-    <t>UBND Ủy ban nhân dân quận Long Biên  thành phố Hà Nội</t>
-  </si>
-  <si>
-    <t>Công an quận Cầu Giấy  thành phố Hà Nội</t>
-  </si>
-  <si>
-    <t>UBND Ủy ban nhân dân quận Cầu Giấy  thành phố Hà Nội</t>
   </si>
   <si>
     <t>Đơn Vị</t>
@@ -433,11 +406,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -458,10 +431,10 @@
         <v>3</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D1" s="7" t="s">
         <v>0</v>
@@ -473,7 +446,7 @@
         <v>2</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
@@ -484,7 +457,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
@@ -492,130 +465,12 @@
       <c r="F2" s="10"/>
       <c r="G2" s="11"/>
     </row>
-    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="8">
-        <v>2</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="11"/>
-    </row>
-    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="8">
-        <v>3</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="11"/>
-    </row>
-    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="8">
-        <v>4</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="11"/>
-    </row>
-    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="8">
-        <v>5</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="11"/>
-    </row>
-    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="8">
-        <v>6</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="11"/>
-    </row>
-    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="8">
-        <v>7</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="11"/>
-    </row>
-    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="8">
-        <v>8</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="11"/>
-    </row>
-    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="8">
-        <v>9</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="11"/>
-    </row>
-    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="8">
-        <v>10</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="11"/>
-    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
